--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/E/20/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/E/20/seed3/result_data_RandomForest.xlsx
@@ -576,7 +576,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>16.27840000000001</v>
+        <v>16.06840000000001</v>
       </c>
     </row>
     <row r="9">
@@ -610,7 +610,7 @@
         <v>-8.85</v>
       </c>
       <c r="E10" t="n">
-        <v>16.41429999999999</v>
+        <v>16.4769</v>
       </c>
     </row>
     <row r="11">
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>18.1617</v>
+        <v>18.07600000000001</v>
       </c>
     </row>
     <row r="13">
@@ -746,7 +746,7 @@
         <v>-6.27</v>
       </c>
       <c r="E18" t="n">
-        <v>17.57550000000002</v>
+        <v>17.65350000000002</v>
       </c>
     </row>
     <row r="19">
@@ -865,7 +865,7 @@
         <v>-7.4</v>
       </c>
       <c r="E25" t="n">
-        <v>17.08060000000001</v>
+        <v>17.22099999999999</v>
       </c>
     </row>
     <row r="26">
@@ -1069,7 +1069,7 @@
         <v>-7.88</v>
       </c>
       <c r="E37" t="n">
-        <v>16.75110000000001</v>
+        <v>16.73240000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1375,7 +1375,7 @@
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.6531</v>
+        <v>16.6212</v>
       </c>
     </row>
     <row r="56">
@@ -1596,7 +1596,7 @@
         <v>-7.27</v>
       </c>
       <c r="E68" t="n">
-        <v>17.59660000000002</v>
+        <v>17.47200000000002</v>
       </c>
     </row>
     <row r="69">
@@ -1749,7 +1749,7 @@
         <v>-6.2</v>
       </c>
       <c r="E77" t="n">
-        <v>18.45030000000003</v>
+        <v>18.40310000000002</v>
       </c>
     </row>
     <row r="78">
@@ -1766,7 +1766,7 @@
         <v>-6.53</v>
       </c>
       <c r="E78" t="n">
-        <v>16.70900000000002</v>
+        <v>16.70960000000003</v>
       </c>
     </row>
     <row r="79">
@@ -1783,7 +1783,7 @@
         <v>-4.8</v>
       </c>
       <c r="E79" t="n">
-        <v>18.87860000000003</v>
+        <v>18.63600000000003</v>
       </c>
     </row>
     <row r="80">
@@ -1800,7 +1800,7 @@
         <v>-6.63</v>
       </c>
       <c r="E80" t="n">
-        <v>16.66870000000002</v>
+        <v>16.69060000000002</v>
       </c>
     </row>
     <row r="81">
@@ -1817,7 +1817,7 @@
         <v>-8.390000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>16.5009</v>
+        <v>16.62289999999998</v>
       </c>
     </row>
     <row r="82">
@@ -1834,7 +1834,7 @@
         <v>-7.37</v>
       </c>
       <c r="E82" t="n">
-        <v>16.88290000000001</v>
+        <v>16.90380000000001</v>
       </c>
     </row>
     <row r="83">
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.66649999999999</v>
+        <v>16.73369999999999</v>
       </c>
     </row>
     <row r="85">
@@ -2157,7 +2157,7 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>17.01230000000002</v>
+        <v>16.89260000000002</v>
       </c>
     </row>
     <row r="102">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.8169</v>
+        <v>16.7593</v>
       </c>
     </row>
   </sheetData>
